--- a/code/results/experiment5/Experiment-5RAW.xlsx
+++ b/code/results/experiment5/Experiment-5RAW.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maarten\Desktop\Afstuderen\thesis_stock_prediction_repo\code\results\experiment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE22F186-034A-49E9-B353-A5163A44ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62672808-96BA-47D7-A2B8-8198EAF07E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment-5RAW" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,6 @@
     <t>Running Time</t>
   </si>
   <si>
-    <t>logs/smape (average)</t>
-  </si>
-  <si>
-    <t>logs/company</t>
-  </si>
-  <si>
-    <t>logs/imputation</t>
-  </si>
-  <si>
-    <t>logs/seed</t>
-  </si>
-  <si>
     <t>EX5-205</t>
   </si>
   <si>
@@ -1157,12 +1145,24 @@
   </si>
   <si>
     <t>["20-predictions","4-year","20-step-ahead","12D-prediction","quarterly","seed0","single_run","presence"]</t>
+  </si>
+  <si>
+    <t>smape</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>imputation</t>
+  </si>
+  <si>
+    <t>seed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1997,11 +1997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,30 +2023,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>375</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>376</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>44413.72320601852</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>106.578</v>
@@ -2055,10 +2055,10 @@
         <v>2.78086993595314E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>44413.723101851851</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>117.137</v>
@@ -2084,10 +2084,10 @@
         <v>2.0755848252686001E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -2095,16 +2095,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>44413.721967592595</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>106.35299999999999</v>
@@ -2113,10 +2113,10 @@
         <v>1.4457325513344299E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -2124,16 +2124,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>44413.721747685187</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>116.68600000000001</v>
@@ -2142,10 +2142,10 @@
         <v>2.30059422140362E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>44413.720671296294</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>111.708</v>
@@ -2171,10 +2171,10 @@
         <v>1.5561385908435201E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>44413.720370370371</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>116.94</v>
@@ -2200,10 +2200,10 @@
         <v>2.1740720662783101E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2211,16 +2211,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>44413.71943287037</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>106.497</v>
@@ -2229,10 +2229,10 @@
         <v>2.1396938125850799E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2240,16 +2240,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>44413.7190162037</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>116.614</v>
@@ -2258,10 +2258,10 @@
         <v>2.0506850792760298E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>44413.718124999999</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>111.97799999999999</v>
@@ -2287,10 +2287,10 @@
         <v>1.2153588287903199E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2298,16 +2298,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>44413.717372685183</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>141.56200000000001</v>
@@ -2316,10 +2316,10 @@
         <v>1.70682651483887E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>44413.611655092594</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>362.39600000000002</v>
@@ -2345,10 +2345,10 @@
         <v>2.01953167749051E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -2356,16 +2356,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>44413.607465277775</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>361.37700000000001</v>
@@ -2374,10 +2374,10 @@
         <v>6.7693228169786301E-3</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -2385,16 +2385,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>44413.603206018517</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>366.89600000000002</v>
@@ -2403,10 +2403,10 @@
         <v>5.9106405244839797E-3</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -2414,16 +2414,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
         <v>44413.598946759259</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>366.90100000000001</v>
@@ -2432,10 +2432,10 @@
         <v>7.8947172202888192E-3</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2443,16 +2443,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>44413.594513888886</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>381.72699999999998</v>
@@ -2461,10 +2461,10 @@
         <v>1.4522091019429801E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2472,16 +2472,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>44413.516238425924</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>311.42</v>
@@ -2490,10 +2490,10 @@
         <v>3.79115379259886E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
         <v>44413.512569444443</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>316.29500000000002</v>
@@ -2519,10 +2519,10 @@
         <v>7.5539751364540296E-3</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -2530,16 +2530,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <v>44413.508888888886</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>317.05900000000003</v>
@@ -2548,10 +2548,10 @@
         <v>7.3709706096428797E-3</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2559,16 +2559,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>44413.505150462966</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>322.09500000000003</v>
@@ -2577,10 +2577,10 @@
         <v>7.4324073056214E-3</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2588,16 +2588,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1">
         <v>44413.501354166663</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>326.71899999999999</v>
@@ -2606,10 +2606,10 @@
         <v>6.0077206740058496E-3</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>44413.455497685187</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>361.10899999999998</v>
@@ -2635,10 +2635,10 @@
         <v>6.5134216674331601E-3</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -2646,16 +2646,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>44413.455497685187</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>361.34300000000002</v>
@@ -2664,10 +2664,10 @@
         <v>5.9376440834174697E-3</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
         <v>44413.454432870371</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>338.80500000000001</v>
@@ -2693,10 +2693,10 @@
         <v>6.0801070235190499E-3</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -2704,16 +2704,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>44413.454386574071</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>337.37</v>
@@ -2722,10 +2722,10 @@
         <v>6.76370379922526E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2733,16 +2733,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
         <v>44413.454224537039</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>336.73599999999999</v>
@@ -2751,10 +2751,10 @@
         <v>6.8855035368761601E-3</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -2762,16 +2762,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1">
         <v>44413.454004629632</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>331.66399999999999</v>
@@ -2780,10 +2780,10 @@
         <v>5.8719713546474799E-3</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
         <v>44413.453668981485</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>322.23099999999999</v>
@@ -2809,10 +2809,10 @@
         <v>1.0542575409735499E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1">
         <v>44413.452430555553</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>306.57600000000002</v>
@@ -2838,10 +2838,10 @@
         <v>5.9377383501199796E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -2849,16 +2849,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
         <v>44413.452256944445</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>301.73200000000003</v>
@@ -2867,10 +2867,10 @@
         <v>3.6185770242456103E-2</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -2878,16 +2878,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <v>44413.452210648145</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>301.52999999999997</v>
@@ -2896,10 +2896,10 @@
         <v>6.0140387813905497E-3</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2907,16 +2907,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>44413.451307870368</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>361.40800000000002</v>
@@ -2925,10 +2925,10 @@
         <v>7.1447698388779702E-3</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2936,16 +2936,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
         <v>44413.451307870368</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <v>361.6</v>
@@ -2954,10 +2954,10 @@
         <v>6.00938312405067E-3</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2965,16 +2965,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>44413.450532407405</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>337.125</v>
@@ -2983,10 +2983,10 @@
         <v>6.0538398928059803E-3</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2994,16 +2994,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1">
         <v>44413.450474537036</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E35">
         <v>336.38799999999998</v>
@@ -3012,10 +3012,10 @@
         <v>2.7697625154598299E-2</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -3023,16 +3023,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1">
         <v>44413.450324074074</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36">
         <v>336.52600000000001</v>
@@ -3041,10 +3041,10 @@
         <v>6.8786611793480697E-3</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -3052,16 +3052,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1">
         <v>44413.450162037036</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>331.63499999999999</v>
@@ -3070,10 +3070,10 @@
         <v>6.2085049922167099E-3</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3081,16 +3081,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
         <v>44413.449942129628</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E38">
         <v>321.35000000000002</v>
@@ -3099,10 +3099,10 @@
         <v>4.5121685360052399E-2</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -3110,16 +3110,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1">
         <v>44413.448877314811</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>306.44600000000003</v>
@@ -3128,10 +3128,10 @@
         <v>6.7690979079091202E-3</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -3139,16 +3139,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1">
         <v>44413.448761574073</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E40">
         <v>301.74299999999999</v>
@@ -3157,10 +3157,10 @@
         <v>6.3366448864405596E-3</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1">
         <v>44413.448703703703</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <v>302.00299999999999</v>
@@ -3186,10 +3186,10 @@
         <v>5.9785657447031897E-3</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1">
         <v>44413.447118055556</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>362.21100000000001</v>
@@ -3215,10 +3215,10 @@
         <v>4.5054831711084598E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -3226,16 +3226,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1">
         <v>44413.447118055556</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <v>361.83199999999999</v>
@@ -3244,10 +3244,10 @@
         <v>8.1258861562499198E-3</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1">
         <v>44413.446631944447</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <v>336.45499999999998</v>
@@ -3273,10 +3273,10 @@
         <v>7.1198511584409999E-3</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -3284,16 +3284,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1">
         <v>44413.446562500001</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E45">
         <v>337.60899999999998</v>
@@ -3302,10 +3302,10 @@
         <v>3.7858634095188498E-2</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3313,16 +3313,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1">
         <v>44413.446423611109</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E46">
         <v>336.36399999999998</v>
@@ -3331,10 +3331,10 @@
         <v>4.5119756501096397E-2</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -3342,16 +3342,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1">
         <v>44413.446319444447</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E47">
         <v>331.55900000000003</v>
@@ -3360,10 +3360,10 @@
         <v>6.3351010426528197E-3</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1">
         <v>44413.446215277778</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E48">
         <v>321.58300000000003</v>
@@ -3389,10 +3389,10 @@
         <v>3.9966664561104898E-2</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -3400,16 +3400,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1">
         <v>44413.445277777777</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E49">
         <v>311.44900000000001</v>
@@ -3418,10 +3418,10 @@
         <v>7.2666727863108602E-3</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -3429,16 +3429,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1">
         <v>44413.445208333331</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E50">
         <v>306.31200000000001</v>
@@ -3447,10 +3447,10 @@
         <v>6.1909539409643203E-3</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3458,16 +3458,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1">
         <v>44413.445208333331</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E51">
         <v>301.46800000000002</v>
@@ -3476,10 +3476,10 @@
         <v>3.9315946826954301E-2</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1">
         <v>44413.442881944444</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E52">
         <v>361.43900000000002</v>
@@ -3505,10 +3505,10 @@
         <v>7.2355095363804498E-3</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -3516,16 +3516,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1">
         <v>44413.442881944444</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E53">
         <v>361.26100000000002</v>
@@ -3534,10 +3534,10 @@
         <v>6.5522485098084299E-3</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B54" s="1">
         <v>44413.442696759259</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E54">
         <v>335.10300000000001</v>
@@ -3563,10 +3563,10 @@
         <v>6.3465173555412599E-3</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3574,16 +3574,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1">
         <v>44413.442650462966</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>337.08600000000001</v>
@@ -3592,10 +3592,10 @@
         <v>1.4525859707390501E-2</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3603,16 +3603,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1">
         <v>44413.442523148151</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E56">
         <v>336.56299999999999</v>
@@ -3621,10 +3621,10 @@
         <v>6.3053444715736803E-3</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3632,16 +3632,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1">
         <v>44413.442476851851</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E57">
         <v>321.95699999999999</v>
@@ -3650,10 +3650,10 @@
         <v>1.05426351593796E-2</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1">
         <v>44413.442476851851</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E58">
         <v>332.08300000000003</v>
@@ -3679,10 +3679,10 @@
         <v>6.1377590285453696E-3</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3690,16 +3690,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1">
         <v>44413.441724537035</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E59">
         <v>306.47800000000001</v>
@@ -3708,10 +3708,10 @@
         <v>3.4579387746503799E-2</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3719,16 +3719,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1">
         <v>44413.441666666666</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E60">
         <v>306.375</v>
@@ -3737,10 +3737,10 @@
         <v>6.9461592429543298E-3</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3748,16 +3748,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="1">
         <v>44413.441655092596</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E61">
         <v>301.642</v>
@@ -3766,10 +3766,10 @@
         <v>6.0561896598947404E-3</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3777,16 +3777,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B62" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E62">
         <v>332.10500000000002</v>
@@ -3795,10 +3795,10 @@
         <v>6.3201666196808001E-3</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3806,16 +3806,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B63" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E63">
         <v>346.82</v>
@@ -3824,10 +3824,10 @@
         <v>7.0339196838647604E-3</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3835,16 +3835,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E64">
         <v>346.74599999999998</v>
@@ -3853,10 +3853,10 @@
         <v>6.46965306921439E-3</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3864,16 +3864,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B65" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E65">
         <v>336.55</v>
@@ -3882,10 +3882,10 @@
         <v>6.9234116663874504E-3</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3893,16 +3893,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B66" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E66">
         <v>366.63200000000001</v>
@@ -3911,10 +3911,10 @@
         <v>6.00800359289606E-3</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B67" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E67">
         <v>366.55799999999999</v>
@@ -3940,10 +3940,10 @@
         <v>9.2597366164915793E-3</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3951,16 +3951,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B68" s="1">
         <v>44413.438634259262</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E68">
         <v>331.46199999999999</v>
@@ -3969,10 +3969,10 @@
         <v>5.8970946426911098E-3</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3980,16 +3980,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B69" s="1">
         <v>44413.438148148147</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E69">
         <v>302.96800000000002</v>
@@ -3998,10 +3998,10 @@
         <v>4.5048785958619803E-2</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4009,16 +4009,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B70" s="1">
         <v>44413.438148148147</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E70">
         <v>308.10399999999998</v>
@@ -4027,10 +4027,10 @@
         <v>6.3333297346986296E-3</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B71" s="1">
         <v>44413.438148148147</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E71">
         <v>302.108</v>
@@ -4056,10 +4056,10 @@
         <v>6.0004317996249102E-3</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4067,16 +4067,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1">
         <v>44412.785254629627</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E72">
         <v>96.355000000000004</v>
@@ -4085,10 +4085,10 @@
         <v>1.21196585012449E-2</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -4096,16 +4096,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1">
         <v>44412.785208333335</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E73">
         <v>100.14</v>
@@ -4114,10 +4114,10 @@
         <v>6.5265072062345997E-2</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -4125,16 +4125,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B74" s="1">
         <v>44412.784074074072</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E74">
         <v>97.278999999999996</v>
@@ -4143,10 +4143,10 @@
         <v>1.5469543629792699E-2</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1">
         <v>44412.784062500003</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E75">
         <v>101.791</v>
@@ -4172,10 +4172,10 @@
         <v>1.4838592330514801E-2</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -4183,16 +4183,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B76" s="1">
         <v>44412.782939814817</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E76">
         <v>96.489000000000004</v>
@@ -4201,10 +4201,10 @@
         <v>5.69601710949331E-2</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -4212,16 +4212,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B77" s="1">
         <v>44412.782939814817</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E77">
         <v>96.903000000000006</v>
@@ -4230,10 +4230,10 @@
         <v>2.2577961009762101E-2</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -4241,16 +4241,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1">
         <v>44412.782881944448</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E78">
         <v>96.745000000000005</v>
@@ -4259,10 +4259,10 @@
         <v>5.36843055028976E-2</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -4270,16 +4270,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B79" s="1">
         <v>44412.782881944448</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E79">
         <v>102.00700000000001</v>
@@ -4288,10 +4288,10 @@
         <v>1.90282568135547E-2</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -4299,16 +4299,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1">
         <v>44412.782847222225</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E80">
         <v>76.778000000000006</v>
@@ -4317,10 +4317,10 @@
         <v>1.6742914956045001E-2</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -4328,16 +4328,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B81" s="1">
         <v>44412.782708333332</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E81">
         <v>91.716999999999999</v>
@@ -4346,10 +4346,10 @@
         <v>1.9858888215157001E-2</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I81">
         <v>4</v>
@@ -4357,16 +4357,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1">
         <v>44412.782060185185</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E82">
         <v>106.27200000000001</v>
@@ -4375,10 +4375,10 @@
         <v>3.4289980798121698E-2</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H82" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -4386,16 +4386,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B83" s="1">
         <v>44412.781886574077</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E83">
         <v>81.677000000000007</v>
@@ -4404,10 +4404,10 @@
         <v>2.4403104616924399E-2</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -4415,16 +4415,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1">
         <v>44412.781817129631</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E84">
         <v>96.462999999999994</v>
@@ -4433,10 +4433,10 @@
         <v>2.1233699567349499E-2</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4444,16 +4444,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B85" s="1">
         <v>44412.781747685185</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E85">
         <v>97.694000000000003</v>
@@ -4462,10 +4462,10 @@
         <v>2.03609009571908E-2</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -4473,16 +4473,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B86" s="1">
         <v>44412.781747685185</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E86">
         <v>97.754999999999995</v>
@@ -4491,10 +4491,10 @@
         <v>1.5698331334122601E-2</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -4502,16 +4502,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B87" s="1">
         <v>44412.781701388885</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E87">
         <v>101.51600000000001</v>
@@ -4520,10 +4520,10 @@
         <v>1.63698849233661E-2</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4531,16 +4531,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B88" s="1">
         <v>44412.781678240739</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E88">
         <v>102.675</v>
@@ -4549,10 +4549,10 @@
         <v>2.5325956495579002E-2</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I88">
         <v>3</v>
@@ -4560,16 +4560,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B89" s="1">
         <v>44412.781643518516</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E89">
         <v>91.438000000000002</v>
@@ -4578,10 +4578,10 @@
         <v>1.31123575766709E-2</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -4589,16 +4589,16 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B90" s="1">
         <v>44412.7809375</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E90">
         <v>81.504999999999995</v>
@@ -4607,10 +4607,10 @@
         <v>2.6539276448794401E-2</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -4618,16 +4618,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B91" s="1">
         <v>44412.780833333331</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E91">
         <v>106.227</v>
@@ -4636,10 +4636,10 @@
         <v>2.6384595395775499E-2</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B92" s="1">
         <v>44412.780636574076</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E92">
         <v>96.23</v>
@@ -4665,10 +4665,10 @@
         <v>1.3646537973379299E-2</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -4676,16 +4676,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B93" s="1">
         <v>44412.780624999999</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E93">
         <v>96.611000000000004</v>
@@ -4694,10 +4694,10 @@
         <v>1.8006987290991198E-2</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -4705,16 +4705,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B94" s="1">
         <v>44412.780578703707</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E94">
         <v>106.687</v>
@@ -4723,10 +4723,10 @@
         <v>2.1149236192328901E-2</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4734,16 +4734,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B95" s="1">
         <v>44412.78052083333</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E95">
         <v>96.343999999999994</v>
@@ -4752,10 +4752,10 @@
         <v>2.1121691718130699E-2</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H95" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -4763,16 +4763,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1">
         <v>44412.780451388891</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E96">
         <v>101.99299999999999</v>
@@ -4781,10 +4781,10 @@
         <v>1.36247016311545E-2</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4792,16 +4792,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B97" s="1">
         <v>44412.780439814815</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E97">
         <v>101.452</v>
@@ -4810,10 +4810,10 @@
         <v>1.8387695423230498E-2</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -4821,16 +4821,16 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B98" s="1">
         <v>44412.779988425929</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E98">
         <v>81.510999999999996</v>
@@ -4839,10 +4839,10 @@
         <v>1.32951381850558E-2</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -4850,16 +4850,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1">
         <v>44412.779583333337</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E99">
         <v>106.80800000000001</v>
@@ -4868,10 +4868,10 @@
         <v>2.03116480398975E-2</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -4879,16 +4879,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B100" s="1">
         <v>44412.779513888891</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E100">
         <v>97</v>
@@ -4897,10 +4897,10 @@
         <v>1.01383748540758E-2</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -4908,16 +4908,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B101" s="1">
         <v>44412.779490740744</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E101">
         <v>97.45</v>
@@ -4926,10 +4926,10 @@
         <v>1.5417505850832101E-2</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H101" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B102" s="1">
         <v>44412.779374999998</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E102">
         <v>98.055999999999997</v>
@@ -4955,10 +4955,10 @@
         <v>1.51024747730432E-2</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H102" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4966,16 +4966,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B103" s="1">
         <v>44412.779270833336</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E103">
         <v>96.741</v>
@@ -4984,10 +4984,10 @@
         <v>3.1082931494571201E-2</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I103">
         <v>4</v>
@@ -4995,16 +4995,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B104" s="1">
         <v>44412.77925925926</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E104">
         <v>101.874</v>
@@ -5013,10 +5013,10 @@
         <v>4.2088541740345299E-2</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -5024,16 +5024,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B105" s="1">
         <v>44412.779039351852</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E105">
         <v>81.695999999999998</v>
@@ -5042,10 +5042,10 @@
         <v>2.3655053044831401E-2</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5053,16 +5053,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B106" s="1">
         <v>44412.778356481482</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E106">
         <v>98.176000000000002</v>
@@ -5071,10 +5071,10 @@
         <v>1.8696141020857201E-2</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -5082,16 +5082,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B107" s="1">
         <v>44412.778356481482</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E107">
         <v>106.121</v>
@@ -5100,10 +5100,10 @@
         <v>3.0939976055799699E-2</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -5111,16 +5111,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B108" s="1">
         <v>44412.778333333335</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E108">
         <v>101.783</v>
@@ -5129,10 +5129,10 @@
         <v>3.0202498784343602E-2</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H108" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -5140,16 +5140,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B109" s="1">
         <v>44412.778240740743</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E109">
         <v>96.661000000000001</v>
@@ -5158,10 +5158,10 @@
         <v>1.9342153935241E-2</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -5169,16 +5169,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B110" s="1">
         <v>44412.778136574074</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E110">
         <v>96.614999999999995</v>
@@ -5187,10 +5187,10 @@
         <v>1.30018326415703E-2</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -5198,16 +5198,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B111" s="1">
         <v>44412.777951388889</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E111">
         <v>111.542</v>
@@ -5216,10 +5216,10 @@
         <v>1.76765557705773E-2</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -5227,16 +5227,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B112" s="1">
         <v>44412.777951388889</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E112">
         <v>79.180000000000007</v>
@@ -5245,10 +5245,10 @@
         <v>1.8908180300769999E-2</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I112">
         <v>4</v>
@@ -5256,16 +5256,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B113" s="1">
         <v>44412.777106481481</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E113">
         <v>102.601</v>
@@ -5274,10 +5274,10 @@
         <v>1.6488553638149901E-2</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H113" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5285,16 +5285,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B114" s="1">
         <v>44412.777060185188</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E114">
         <v>111.465</v>
@@ -5303,10 +5303,10 @@
         <v>2.8397213582105799E-2</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H114" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5314,16 +5314,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B115" s="1">
         <v>44412.777025462965</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E115">
         <v>96.209000000000003</v>
@@ -5332,10 +5332,10 @@
         <v>2.4246219975613E-2</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -5343,16 +5343,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B116" s="1">
         <v>44412.777002314811</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E116">
         <v>81.397999999999996</v>
@@ -5361,10 +5361,10 @@
         <v>1.6989536014566702E-2</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H116" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I116">
         <v>3</v>
@@ -5372,16 +5372,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B117" s="1">
         <v>44412.776041666664</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E117">
         <v>82.367000000000004</v>
@@ -5390,10 +5390,10 @@
         <v>2.13185583723671E-2</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -5401,16 +5401,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B118" s="1">
         <v>44412.775891203702</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E118">
         <v>97.361999999999995</v>
@@ -5419,10 +5419,10 @@
         <v>4.3830353964013101E-2</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5430,16 +5430,16 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B119" s="1">
         <v>44412.775104166663</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E119">
         <v>81.192999999999998</v>
@@ -5448,10 +5448,10 @@
         <v>1.7031048966634901E-2</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -5459,16 +5459,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B120" s="1">
         <v>44412.774687500001</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E120">
         <v>102.71299999999999</v>
@@ -5477,10 +5477,10 @@
         <v>2.9760697696357599E-2</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H120" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5488,16 +5488,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B121" s="1">
         <v>44412.773981481485</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E121">
         <v>96.450999999999993</v>
@@ -5506,10 +5506,10 @@
         <v>1.5445150998288901E-2</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H121" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5517,16 +5517,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B122" s="1">
         <v>44412.629675925928</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E122">
         <v>1196.3579999999999</v>
@@ -5535,10 +5535,10 @@
         <v>1.0232210627290799E-2</v>
       </c>
       <c r="G122" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H122" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I122">
         <v>4</v>
@@ -5546,16 +5546,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B123" s="1">
         <v>44412.628888888888</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E123">
         <v>1116.23</v>
@@ -5564,10 +5564,10 @@
         <v>3.2348394459773597E-2</v>
       </c>
       <c r="G123" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H123" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I123">
         <v>4</v>
@@ -5575,16 +5575,16 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B124" s="1">
         <v>44412.626527777778</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E124">
         <v>1091.9069999999999</v>
@@ -5593,10 +5593,10 @@
         <v>1.32064010408404E-2</v>
       </c>
       <c r="G124" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -5604,16 +5604,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B125" s="1">
         <v>44412.624930555554</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E125">
         <v>1061.473</v>
@@ -5622,10 +5622,10 @@
         <v>2.1282955235546401E-2</v>
       </c>
       <c r="G125" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H125" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I125">
         <v>4</v>
@@ -5633,16 +5633,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B126" s="1">
         <v>44412.624652777777</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E126">
         <v>1127.4390000000001</v>
@@ -5651,10 +5651,10 @@
         <v>2.5963471248353499E-2</v>
       </c>
       <c r="G126" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H126" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I126">
         <v>4</v>
@@ -5662,16 +5662,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B127" s="1">
         <v>44412.622800925928</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E127">
         <v>1091.7470000000001</v>
@@ -5680,10 +5680,10 @@
         <v>3.1051205599783301E-2</v>
       </c>
       <c r="G127" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H127" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I127">
         <v>4</v>
@@ -5691,16 +5691,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B128" s="1">
         <v>44412.621203703704</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E128">
         <v>1021.5309999999999</v>
@@ -5709,10 +5709,10 @@
         <v>3.4239461671792398E-2</v>
       </c>
       <c r="G128" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H128" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I128">
         <v>4</v>
@@ -5720,16 +5720,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B129" s="1">
         <v>44412.620208333334</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E129">
         <v>1161.809</v>
@@ -5738,10 +5738,10 @@
         <v>1.43093743665667E-2</v>
       </c>
       <c r="G129" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H129" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -5749,16 +5749,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B130" s="1">
         <v>44412.619675925926</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E130">
         <v>1143.6410000000001</v>
@@ -5767,10 +5767,10 @@
         <v>3.08713977117306E-2</v>
       </c>
       <c r="G130" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H130" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -5778,16 +5778,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B131" s="1">
         <v>44412.618819444448</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E131">
         <v>1111.4870000000001</v>
@@ -5796,10 +5796,10 @@
         <v>3.4126875711620097E-2</v>
       </c>
       <c r="G131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H131" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I131">
         <v>4</v>
@@ -5807,16 +5807,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B132" s="1">
         <v>44412.618368055555</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E132">
         <v>1121.462</v>
@@ -5825,10 +5825,10 @@
         <v>1.0228494967159199E-2</v>
       </c>
       <c r="G132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -5836,16 +5836,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B133" s="1">
         <v>44412.6171412037</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E133">
         <v>1121.2829999999999</v>
@@ -5854,10 +5854,10 @@
         <v>1.2564603849262701E-2</v>
       </c>
       <c r="G133" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I133">
         <v>4</v>
@@ -5865,16 +5865,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B134" s="1">
         <v>44412.615902777776</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E134">
         <v>1116.2719999999999</v>
@@ -5883,10 +5883,10 @@
         <v>3.5685964338007699E-2</v>
       </c>
       <c r="G134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H134" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I134">
         <v>3</v>
@@ -5894,16 +5894,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B135" s="1">
         <v>44412.615243055552</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E135">
         <v>1246.3240000000001</v>
@@ -5912,10 +5912,10 @@
         <v>1.0214577394486399E-2</v>
       </c>
       <c r="G135" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H135" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I135">
         <v>3</v>
@@ -5923,16 +5923,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B136" s="1">
         <v>44412.613877314812</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E136">
         <v>1091.854</v>
@@ -5941,10 +5941,10 @@
         <v>1.53377499951452E-2</v>
       </c>
       <c r="G136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H136" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I136">
         <v>3</v>
@@ -5952,16 +5952,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B137" s="1">
         <v>44412.612407407411</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E137">
         <v>1081.3900000000001</v>
@@ -5970,10 +5970,10 @@
         <v>1.6213592021062199E-2</v>
       </c>
       <c r="G137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H137" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I137">
         <v>3</v>
@@ -5981,16 +5981,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B138" s="1">
         <v>44412.611666666664</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E138">
         <v>1121.3720000000001</v>
@@ -5999,10 +5999,10 @@
         <v>2.5283779068990899E-2</v>
       </c>
       <c r="G138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H138" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I138">
         <v>3</v>
@@ -6010,16 +6010,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B139" s="1">
         <v>44412.610162037039</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E139">
         <v>1091.646</v>
@@ -6028,10 +6028,10 @@
         <v>3.56324848301088E-2</v>
       </c>
       <c r="G139" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H139" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I139">
         <v>3</v>
@@ -6039,16 +6039,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B140" s="1">
         <v>44412.609189814815</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E140">
         <v>1036.5070000000001</v>
@@ -6057,10 +6057,10 @@
         <v>4.0563901651278003E-2</v>
       </c>
       <c r="G140" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H140" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I140">
         <v>3</v>
@@ -6068,16 +6068,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B141" s="1">
         <v>44412.606828703705</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E141">
         <v>1156.3409999999999</v>
@@ -6086,10 +6086,10 @@
         <v>1.5941614980447501E-2</v>
       </c>
       <c r="G141" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I141">
         <v>3</v>
@@ -6097,16 +6097,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B142" s="1">
         <v>44412.606458333335</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E142">
         <v>1141.415</v>
@@ -6115,10 +6115,10 @@
         <v>3.04787818992402E-2</v>
       </c>
       <c r="G142" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H142" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I142">
         <v>3</v>
@@ -6126,16 +6126,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B143" s="1">
         <v>44412.605949074074</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E143">
         <v>1111.867</v>
@@ -6144,10 +6144,10 @@
         <v>3.03171621525712E-2</v>
       </c>
       <c r="G143" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H143" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I143">
         <v>3</v>
@@ -6155,16 +6155,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B144" s="1">
         <v>44412.605196759258</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E144">
         <v>1132.731</v>
@@ -6173,10 +6173,10 @@
         <v>1.02737582410774E-2</v>
       </c>
       <c r="G144" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I144">
         <v>3</v>
@@ -6184,16 +6184,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B145" s="1">
         <v>44412.604155092595</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E145">
         <v>1121.117</v>
@@ -6202,10 +6202,10 @@
         <v>1.0964597259922101E-2</v>
       </c>
       <c r="G145" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I145">
         <v>3</v>
@@ -6213,16 +6213,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B146" s="1">
         <v>44412.60297453704</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E146">
         <v>1116.6089999999999</v>
@@ -6231,10 +6231,10 @@
         <v>2.7532663567808001E-2</v>
       </c>
       <c r="G146" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H146" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -6242,16 +6242,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B147" s="1">
         <v>44412.601238425923</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E147">
         <v>1091.2750000000001</v>
@@ -6260,10 +6260,10 @@
         <v>1.34209993895123E-2</v>
       </c>
       <c r="G147" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H147" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -6271,16 +6271,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B148" s="1">
         <v>44412.600810185184</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E148">
         <v>1246.44</v>
@@ -6289,10 +6289,10 @@
         <v>1.11813636482731E-2</v>
       </c>
       <c r="G148" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H148" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I148">
         <v>2</v>
@@ -6300,16 +6300,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B149" s="1">
         <v>44412.599733796298</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E149">
         <v>1093.48</v>
@@ -6318,10 +6318,10 @@
         <v>2.0913072971917301E-2</v>
       </c>
       <c r="G149" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H149" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -6329,16 +6329,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B150" s="1">
         <v>44412.598854166667</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E150">
         <v>1106.2560000000001</v>
@@ -6347,10 +6347,10 @@
         <v>2.1806737610289801E-2</v>
       </c>
       <c r="G150" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H150" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I150">
         <v>2</v>
@@ -6358,16 +6358,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B151" s="1">
         <v>44412.597627314812</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E151">
         <v>1082.529</v>
@@ -6376,10 +6376,10 @@
         <v>3.1751994876706498E-2</v>
       </c>
       <c r="G151" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H151" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -6387,16 +6387,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B152" s="1">
         <v>44412.597187500003</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E152">
         <v>1036.6300000000001</v>
@@ -6405,10 +6405,10 @@
         <v>4.34491054083199E-2</v>
       </c>
       <c r="G152" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H152" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -6416,16 +6416,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B153" s="1">
         <v>44412.59337962963</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E153">
         <v>1161.3579999999999</v>
@@ -6434,10 +6434,10 @@
         <v>2.0085640633152001E-2</v>
       </c>
       <c r="G153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H153" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -6445,16 +6445,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B154" s="1">
         <v>44412.593194444446</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E154">
         <v>1146.2080000000001</v>
@@ -6463,10 +6463,10 @@
         <v>2.7506826971122601E-2</v>
       </c>
       <c r="G154" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H154" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I154">
         <v>2</v>
@@ -6474,16 +6474,16 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B155" s="1">
         <v>44412.593009259261</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E155">
         <v>1117.058</v>
@@ -6492,10 +6492,10 @@
         <v>2.9967193071582399E-2</v>
       </c>
       <c r="G155" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H155" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I155">
         <v>2</v>
@@ -6503,16 +6503,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B156" s="1">
         <v>44412.591851851852</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E156">
         <v>1151.6030000000001</v>
@@ -6521,10 +6521,10 @@
         <v>1.07216145786658E-2</v>
       </c>
       <c r="G156" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -6532,16 +6532,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B157" s="1">
         <v>44412.591041666667</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E157">
         <v>1131.2750000000001</v>
@@ -6550,10 +6550,10 @@
         <v>1.50277541571033E-2</v>
       </c>
       <c r="G157" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -6561,16 +6561,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B158" s="1">
         <v>44412.589930555558</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E158">
         <v>1126.588</v>
@@ -6579,10 +6579,10 @@
         <v>2.4207249037902501E-2</v>
       </c>
       <c r="G158" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H158" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6590,16 +6590,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B159" s="1">
         <v>44412.588599537034</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E159">
         <v>1091.6130000000001</v>
@@ -6608,10 +6608,10 @@
         <v>1.1580701225417701E-2</v>
       </c>
       <c r="G159" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H159" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6619,16 +6619,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B160" s="1">
         <v>44412.587083333332</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E160">
         <v>1091.9760000000001</v>
@@ -6637,10 +6637,10 @@
         <v>1.6287895373241299E-2</v>
       </c>
       <c r="G160" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H160" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6648,16 +6648,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B161" s="1">
         <v>44412.5862037037</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E161">
         <v>1261.116</v>
@@ -6666,10 +6666,10 @@
         <v>1.01692024466697E-2</v>
       </c>
       <c r="G161" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H161" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -6677,16 +6677,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B162" s="1">
         <v>44412.586157407408</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E162">
         <v>1096.213</v>
@@ -6695,10 +6695,10 @@
         <v>2.1637400355983501E-2</v>
       </c>
       <c r="G162" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6706,16 +6706,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B163" s="1">
         <v>44412.585219907407</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E163">
         <v>1071.4000000000001</v>
@@ -6724,10 +6724,10 @@
         <v>3.2214551457797599E-2</v>
       </c>
       <c r="G163" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H163" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -6735,16 +6735,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B164" s="1">
         <v>44412.585173611114</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E164">
         <v>1037.287</v>
@@ -6753,10 +6753,10 @@
         <v>4.5722785759994E-2</v>
       </c>
       <c r="G164" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H164" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -6764,16 +6764,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B165" s="1">
         <v>44412.579965277779</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E165">
         <v>1126.325</v>
@@ -6782,10 +6782,10 @@
         <v>3.23961330680674E-2</v>
       </c>
       <c r="G165" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H165" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6793,16 +6793,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B166" s="1">
         <v>44412.579918981479</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E166">
         <v>1146.498</v>
@@ -6811,10 +6811,10 @@
         <v>3.0145091622476399E-2</v>
       </c>
       <c r="G166" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H166" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -6822,16 +6822,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B167" s="1">
         <v>44412.579872685186</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E167">
         <v>1166.2239999999999</v>
@@ -6840,10 +6840,10 @@
         <v>1.4571340527185899E-2</v>
       </c>
       <c r="G167" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H167" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -6851,16 +6851,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B168" s="1">
         <v>44412.578576388885</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E168">
         <v>1145.992</v>
@@ -6869,10 +6869,10 @@
         <v>1.12160603820846E-2</v>
       </c>
       <c r="G168" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -6880,16 +6880,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B169" s="1">
         <v>44412.577997685185</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E169">
         <v>1126.309</v>
@@ -6898,10 +6898,10 @@
         <v>1.3873647431009301E-2</v>
       </c>
       <c r="G169" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -6909,16 +6909,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B170" s="1">
         <v>44412.576817129629</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E170">
         <v>1131.5250000000001</v>
@@ -6927,10 +6927,10 @@
         <v>2.7851299902819801E-2</v>
       </c>
       <c r="G170" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H170" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -6938,16 +6938,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B171" s="1">
         <v>44412.575902777775</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E171">
         <v>1092.252</v>
@@ -6956,10 +6956,10 @@
         <v>9.8040323798870704E-3</v>
       </c>
       <c r="G171" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H171" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -6967,16 +6967,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B172" s="1">
         <v>44412.574270833335</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E172">
         <v>1106.462</v>
@@ -6985,10 +6985,10 @@
         <v>2.32547757075088E-2</v>
       </c>
       <c r="G172" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H172" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6996,16 +6996,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B173" s="1">
         <v>44412.573344907411</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E173">
         <v>1106.5899999999999</v>
@@ -7014,10 +7014,10 @@
         <v>2.3548842631780899E-2</v>
       </c>
       <c r="G173" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H173" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7025,16 +7025,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B174" s="1">
         <v>44412.57304398148</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E174">
         <v>1046.5920000000001</v>
@@ -7043,10 +7043,10 @@
         <v>3.68283456034263E-2</v>
       </c>
       <c r="G174" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H174" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7054,16 +7054,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B175" s="1">
         <v>44412.572696759256</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E175">
         <v>1081.4639999999999</v>
@@ -7072,10 +7072,10 @@
         <v>2.9830140348504501E-2</v>
       </c>
       <c r="G175" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H175" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -7083,16 +7083,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B176" s="1">
         <v>44412.571412037039</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E176">
         <v>1276.3119999999999</v>
@@ -7101,10 +7101,10 @@
         <v>1.00744523946679E-2</v>
       </c>
       <c r="G176" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H176" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -7112,16 +7112,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B177" s="1">
         <v>44412.566805555558</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E177">
         <v>1136.3820000000001</v>
@@ -7130,10 +7130,10 @@
         <v>3.1420905267390498E-2</v>
       </c>
       <c r="G177" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H177" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -7141,16 +7141,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B178" s="1">
         <v>44412.566412037035</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E178">
         <v>1166.348</v>
@@ -7159,10 +7159,10 @@
         <v>2.9907430902922801E-2</v>
       </c>
       <c r="G178" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H178" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -7170,16 +7170,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B179" s="1">
         <v>44412.566180555557</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E179">
         <v>1181.71</v>
@@ -7188,10 +7188,10 @@
         <v>1.67626587557363E-2</v>
       </c>
       <c r="G179" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H179" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -7199,16 +7199,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B180" s="1">
         <v>44412.565127314818</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E180">
         <v>1161.2560000000001</v>
@@ -7217,10 +7217,10 @@
         <v>9.9332290479885003E-3</v>
       </c>
       <c r="G180" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H180" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7228,16 +7228,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B181" s="1">
         <v>44412.564768518518</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E181">
         <v>1142.0619999999999</v>
@@ -7246,10 +7246,10 @@
         <v>1.2847420636440701E-2</v>
       </c>
       <c r="G181" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I181">
         <v>0</v>
